--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -32,11 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot; PLN&quot;"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -401,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -430,55 +428,78 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>44896</v>
-      </c>
-      <c r="B2" s="1">
-        <v>215.99</v>
+      <c r="A2" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>бригады</v>
+        <v>Бригада</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>имя фамилия</v>
+        <v/>
       </c>
       <c r="E2" s="1" t="str">
-        <v>топливо</v>
+        <v>Материал</v>
       </c>
       <c r="F2" s="1" t="str">
-        <v>объект</v>
+        <v>Skysawa</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v>Бригада Игоря</v>
+        <v>Бригада Миши</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>44896</v>
-      </c>
-      <c r="B3" s="1">
-        <v>215.99</v>
+      <c r="A3" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>23.69</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>бригады</v>
+        <v>Люди</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>Алеша Поповч</v>
+        <v/>
       </c>
       <c r="E3" s="1" t="str">
-        <v>мозги</v>
+        <v>Почта</v>
       </c>
       <c r="F3" s="1" t="str">
-        <v>Кудыкина гора</v>
+        <v>Office</v>
       </c>
       <c r="G3" s="1" t="str">
-        <v>Бригада Святослава Ярополковича</v>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>Андрей - керовник</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>Почта</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -496,10 +496,33 @@
         <v/>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>42.6</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>Зарплата</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -519,10 +519,608 @@
         <v/>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>Топливо</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <v>Бригада Игоря</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>Александра</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>Инструмент</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>123</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E8" s="1" t="str">
+        <v>Зарплата</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <v>Skysawa</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>205</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>Zyben Mikhail</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <v>Зарплата</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <v>Владислав</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <v>Страховки на авто</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>300</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <v>Андрей - керовник</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <v>Аванс</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <v>Skysawa</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>563</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E12" s="1" t="str">
+        <v>Жилье</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <v>199,9</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E13" s="1" t="str">
+        <v>Топливо</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <v>Бригада Игоря</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <v>458</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E14" s="1" t="str">
+        <v>Ксеро</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <v>Shartukh Anton i Aliaksandr</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E15" s="1" t="str">
+        <v>Аванс</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <v>Бригада Миши</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <v>589</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <v>Lelyuk Alexandr</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <v>Зарплата</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <v>Novisa</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <v>Бригада Лелюка</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <v>541</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <v>Валерий</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <v>Зарплата</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <v>Novisa</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <v>Shartukh Anton i Aliaksandr</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <v>589</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <v>Андрийко</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <v>Материал</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <v>GIPS Karpacz</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <v>542</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <v>Tsishkou Dmitry</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <v>Страховки на авто</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <v>Shartukh Anton i Aliaksandr</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <v>523</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E20" s="1" t="str">
+        <v>Страховки на авто</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <v>Shartukh Anton i Aliaksandr</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <v>586</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <v>Statsenka Aliaksandr</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <v>Почта</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <v>589</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E22" s="1" t="str">
+        <v>Почта</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <v>Novisa</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <v>Mykola i Oleksii</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <v>589</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E23" s="1" t="str">
+        <v>Ксеро</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <v>Novisa</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <v>Бригада Игоря</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <v>200,05</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <v>Богдан</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <v>Жилье</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <v>54,5</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <v>Tarasiuk Oleksandr</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <v>Ксеро</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <v>589</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <v>Koushyk Petr</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <v>Ксеро</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <v>52.3</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <v>Андрийко</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <v>Ксеро</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <v>52.6</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E28" s="1" t="str">
+        <v>Жилье</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <v>Бригада Лелюка</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <v>52.6</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <v>Dranyk Oleksandr</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <v>Ксеро</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <v>4.36</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <v>Statsenka Aliaksandr</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <v>Ксеро</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="str">
+        <v>09.11.2022</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <v>5.36</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E31" s="1" t="str">
+        <v>Почта</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -429,100 +429,54 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>09.11.2022</v>
+        <v>10.11.2022</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>52,6</v>
+        <v>25,36</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>Бригада</v>
+        <v>Общее</v>
       </c>
       <c r="D2" s="1" t="str">
         <v/>
       </c>
       <c r="E2" s="1" t="str">
-        <v>Почта</v>
+        <v>Ксеро</v>
       </c>
       <c r="F2" s="1" t="str">
-        <v>Skysawa</v>
+        <v>Karpacz</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v>Бригада Миши</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>09.11.2022</v>
+        <v>10.11.2022</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>52,69</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>Бригада</v>
+        <v>Люди</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v/>
+        <v>Владислав</v>
       </c>
       <c r="E3" s="1" t="str">
-        <v>Материал</v>
+        <v>Топливо</v>
       </c>
       <c r="F3" s="1" t="str">
-        <v>Karpacz</v>
+        <v>Office</v>
       </c>
       <c r="G3" s="1" t="str">
-        <v>Бригада Миши</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="str">
-        <v>09.11.2022</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>214,69</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <v>Люди</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <v>Lelyuk Alexandr</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <v>Аванс</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <v>GIPS Karpacz</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="str">
-        <v>09.11.2022</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>523,8</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>Общее</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v>Топливо</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <v>Office</v>
-      </c>
-      <c r="G5" s="1" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -399,32 +399,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>дата</v>
+        <v>Дата</v>
       </c>
       <c r="B1" s="1" t="str">
-        <v>сумма</v>
+        <v>Сумма</v>
       </c>
       <c r="C1" s="1" t="str">
-        <v>вид</v>
+        <v>Вид</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>люди</v>
+        <v>Люди</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>титул</v>
+        <v>Титул</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>объект</v>
+        <v>Объект</v>
       </c>
       <c r="G1" s="1" t="str">
-        <v>бригады</v>
+        <v>Бригады</v>
       </c>
     </row>
     <row r="2">
@@ -432,22 +441,22 @@
         <v>10.11.2022</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>25,36</v>
+        <v>253,6</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>Общее</v>
+        <v>Бригада</v>
       </c>
       <c r="D2" s="1" t="str">
         <v/>
       </c>
       <c r="E2" s="1" t="str">
-        <v>Ксеро</v>
+        <v>Аванс</v>
       </c>
       <c r="F2" s="1" t="str">
-        <v>Karpacz</v>
+        <v>MCM project</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v/>
+        <v>Shartukh Anton i Aliaksandr</v>
       </c>
     </row>
     <row r="3">
@@ -455,28 +464,74 @@
         <v>10.11.2022</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>215</v>
+        <v>23,69</v>
       </c>
       <c r="C3" s="1" t="str">
         <v>Люди</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>Владислав</v>
+        <v>Tarasiuk Oleksandr</v>
       </c>
       <c r="E3" s="1" t="str">
+        <v>Страховки на авто</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <v>Skysawa</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>10.11.2022</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>25,36</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>Зарплата</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>10.11.2022</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>25,69</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>Анастасия PM</v>
+      </c>
+      <c r="E5" s="1" t="str">
         <v>Топливо</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F5" s="1" t="str">
         <v>Office</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G5" s="1" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -528,10 +528,263 @@
         <v/>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>17.11.2022</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>Топливо</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <v>Novisa</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>17.11.2022</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>Жилье</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <v>Бригада Лелюка</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>17.11.2022</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E8" s="1" t="str">
+        <v>Топливо</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <v>Skysawa</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <v>Бригада Миши</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="str">
+        <v>17.11.2022</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>Lelyuk Alexandr</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <v>Материал</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="str">
+        <v>17.11.2022</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <v>53,89</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E10" s="1" t="str">
+        <v>Топливо</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="str">
+        <v>17.11.2022</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>32,78</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="1" t="str">
+        <v>Проезд - билеты</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="str">
+        <v>17.11.2022</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>43,98</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E12" s="1" t="str">
+        <v>Инструмент</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="str">
+        <v>17.11.2022</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <v>23,69</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E13" s="1" t="str">
+        <v>Зарплата</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="str">
+        <v>17.11.2022</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <v>214,36</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E14" s="1" t="str">
+        <v>коллекция покемонов</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="str">
+        <v>17.11.2022</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E15" s="1" t="str">
+        <v>Габилен</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <v>Бригада Игоря</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="str">
+        <v>19.11.2022</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <v>43,89</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <v>Владислав</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <v>Жилье</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -435,6 +435,12 @@
       <c r="G1" s="1" t="str">
         <v>Бригады</v>
       </c>
+      <c r="H1" s="1" t="str">
+        <v>ФИО</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <v>Комментарий</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -781,10 +787,377 @@
         <v/>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="str">
+        <v>19.11.2022</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <v>65,88</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E17" s="1" t="str">
+        <v>Материал</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <v>Skysawa</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="str">
+        <v>19.11.2022</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <v>25,3</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E18" s="1" t="str">
+        <v>что-нибудь такое</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E19" s="1" t="str">
+        <v>Материал</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <v>Skysawa</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H19" s="1" t="str">
+        <v>Rybkin Anton</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E20" s="1" t="str">
+        <v>Жилье</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H20" s="1" t="str">
+        <v>Rybkin Anton | s_ryb</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <v>255</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E21" s="1" t="str">
+        <v>Жилье</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H21" s="1" t="str">
+        <v>Rybkin Anton; s_ryb; 192713235</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <v>2569</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E22" s="1" t="str">
+        <v>Дичь собачья</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H22" s="1" t="str">
+        <v>Rybkin Anton; s_ryb; 192713235</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <v>256</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E23" s="1" t="str">
+        <v>Жилье</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <v>GIPS Karpacz</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H23" s="1" t="str">
+        <v>Rybkin Anton; s_ryb; 192713235</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <v>214</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E24" s="1" t="str">
+        <v>Топливо</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H24" s="1" t="str">
+        <v>Rybkin Anton; s_ryb; 192713235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <v>548</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E25" s="1" t="str">
+        <v>Жилье</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H25" s="1" t="str">
+        <v>Rybkin Anton; s_ryb; 192713235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <v>548</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E26" s="1" t="str">
+        <v>Жилье</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H26" s="1" t="str">
+        <v>Rybkin Anton; s_ryb; 192713235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <v>548</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E27" s="1" t="str">
+        <v>Расходники</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H27" s="1" t="str">
+        <v>Rybkin Anton; s_ryb; 192713235</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <v>548</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E28" s="1" t="str">
+        <v>Расходники</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H28" s="1" t="str">
+        <v>Rybkin Anton; s_ryb; 192713235</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <v>ну типа того вот так и эдак</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <v>4123</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E29" s="1" t="str">
+        <v>Топливо</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H29" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <v>шла саша по шосе и сосала сушку</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="str">
+        <v>20.12.2022</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <v>589</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E30" s="1" t="str">
+        <v>херня какая-то</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <v>GIPS Karpacz</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H30" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <v>нужная херня очень</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1154,10 +1154,233 @@
         <v>нужная херня очень</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1" t="str">
+        <v>22.12.2022</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <v>596</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <v>Богдан</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <v>Инструмент</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H31" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="str">
+        <v>22.12.2022</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <v>548</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <v>Владислав</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <v>Скрепки</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H32" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <v>да еб тво.ю мать</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="str">
+        <v>22.12.2022</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <v>528</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <v>Dranyk Oleksandr</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <v>текс</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <v>Novisa</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H33" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <v>52</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E34" s="1" t="str">
+        <v>dadsasd5487</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H34" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <v>52,36</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E35" s="1" t="str">
+        <v>тексти и 5842</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H35" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <v>5423 и текст</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <v>58,36</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <v>Богдан</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <v>Инструмент</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H36" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <v>вфывфы</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <v>25,36</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E37" s="1" t="str">
+        <v>sdassdefvb</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H37" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <v>uqiqwytety</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <v>52,36</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E38" s="1" t="str">
+        <v>kjjk k</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <v>Office</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H38" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <v>fgsv0225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -411,6 +411,7 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1377,10 +1378,210 @@
         <v>fgsv0225</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <v>52,6</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E39" s="1" t="str">
+        <v>Расходники</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H39" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <v>fdsfdsf\</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <v>5266</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <v>Владислав</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <v>Расходники</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H40" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <v>52,36</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <v>Люди</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <v>Андрей - керовник</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <v>Проезд - билеты</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H41" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <v>53,3</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <v>Общее</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E42" s="1" t="str">
+        <v>jdmfk</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H42" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <v>528,6</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E43" s="1" t="str">
+        <v>Ксеро</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <v>Бригада Игоря</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <v>Комментарий и 528</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <v>25,36</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E44" s="1" t="str">
+        <v>Расходники</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <v>Karpacz</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <v>Бригада Игоря</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <v>ну вот вроде бы и славненько</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="str">
+        <v>23.12.2022</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <v>25,6</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <v>Бригада</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E45" s="1" t="str">
+        <v>Страховки на авто</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <v>MCM project</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <v>Shartukh Anton i Aliaksandr</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <v>Rybkin Anton; s_ryb</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I45"/>
   </ignoredErrors>
 </worksheet>
 </file>